--- a/data/monthly.xlsx
+++ b/data/monthly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w1mug\Desktop\naga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D709972-1CEF-417B-B352-3AB63B97529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A661E36-FDFC-4046-A5FF-C2EE4011E5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,19 +82,19 @@
     <t>Overall Sales Effectiveness</t>
   </si>
   <si>
-    <t>Maida, Godhumai Maavu, Rava Dosai Mix, Rava Idli Mix, Semiya, Upma Semiya, Ragi Semiya, Gulab Jamun Mix, Payasam Mix, Chips (Kooler Chips), Chocoes (Chocolate Snacks), Rusk (Kooler Rusk), Fine Noodles, Masala Noodles, Samba Rava, Poori Maavu, Rava, Atta, Maida, Upma Semiya, Ragi Maavu, Kadalai Maavu, Arisi Maavu, Bajji Maavu, Idiyappam Maavu, Kozhukattai Maavu, Pasta, Payasam Semiya, Rusk, Akka Noodles, Colo Chips, Gulab Jamun Mix, Maida, Rava Idli Mix, Rava Dosai Mix, Samba Rava, Poori Maavu, Fine Noodles, Masala Noodles, Chips (Kooler Chips), Rusk (Kooler Rusk), Chocoes (Chocolate Snacks), Gulab Jamun Mix, Payasam Mix, Semiya, Upma Semiya, Ragi Semiya, Ragi Maavu, Arisi Maavu, Rusk, Ragi Maavu, Bajji Maavu, Colo Chips, Maida, Godhumai Maavu, Rava Idli Mix, Rava Dosai Mix, Samba Rava, Fine Noodles, Masala Noodles, Gulab Jamun Mix, Payasam Mix, Poori Maavu, Rusk (Kooler Rusk), Chips (Kooler Chips), Maida, Maida, Upma Semiya, Ragi Maavu, Semiya, Bajji Maavu, Idiyappam Maavu, Pasta, Maida, Samba Rava, Poori Maavu, Rava Idli Mix, Rava Dosai Mix, Ragi Semiya, Gulab Jamun Mix, Payasam Mix, Chocoes (Chocolate Snacks), Chips (Kooler Chips), Fine Noodles, Masala Noodles, Maida, Maida, Rusk, Upma Semiya, Semiya, Rava, Maida, Bajji Maavu, Arisi Maavu, Rusk, Colo Chips</t>
-  </si>
-  <si>
-    <t>MTR, Britannia, Sankar, Britannia, Nandi, Sankar, Britannia, Nandi, MTR, Aachi, Aachi, Sankar, Sankar, Flipkart, Aachi, Flipkart, Flipkart, Nandi, Sankar, Aachi, Flipkart, MTR, MTR, Britannia, Sankar, Sakthi, Sakthi, Sankar, Nandi, Flipkart, Sankar, Aachi, Britannia, Britannia, Flipkart, MTR, Britannia, Sakthi, Britannia, Sakthi, Britannia, Britannia, Britannia, Britannia, Aachi, Flipkart, Sakthi, Britannia, Flipkart, Flipkart, Britannia, Sakthi, Sakthi, Flipkart, Aachi, Sakthi, Britannia, Sakthi, Aachi, Flipkart, Sakthi, Britannia, Sankar, MTR, MTR, Aachi, Aachi, Nandi, MTR, Sankar, Aachi, Aachi, MTR, Nandi, Aachi, Aachi</t>
-  </si>
-  <si>
-    <t>Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Semiya, Semiya, Upma Semiya, Upma Semiya, Ragi Semiya, Semiya, Maida, Maida, Maida, Maida, Rava Idli Mix, Rava Dosai Mix, Rava Idli Mix, Rava Dosai Mix, Masala Noodles, Masala Noodles, Fine Noodles, Fine Noodles, Chips, Chips, Chips, Chips, Chocoes (Chocolate Snacks), Chocoes (Chocolate Snacks), Samba Rava, Poori Maavu, Ragi Maavu, Kadalai Maavu, Bajji Maavu, Pasta, Payasam Mix, Payasam Mix, Payasam Mix</t>
-  </si>
-  <si>
     <t>Pricing Concerns</t>
   </si>
   <si>
-    <t>Rusk, Chips, Masala Noodles, Fine Noodles, Akka Noodles, Rava Idli Mix, Rava Dosai Mix, Gulab Jamun Mix, Payasam Mix, Maida, Atta, Ragi Maavu, Godhumai Maavu, Bajji Maavu, Rusk, Chips, Rava Idli Mix, Rava Dosai Mix, Masala Noodles, Fine Noodles, Gulab Jamun Mix, Payasam Mix, Maida, Ragi Maavu, Rava, Poori Maavu, Samba Rava, Chips, Rusk, Gulab Jamun Mix, Payasam Mix, Maida, Bajji Maavu, Rava Dosai Mix, Rava Idli Mix, Masala Noodles, Fine Noodles, Rusk</t>
+    <t>Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Semiya, Semiya, Upma Semiya, Upma Semiya, Ragi Semiya, Semiya, Maida, Maida, Maida, Maida, Rava Idli Mix, Rava Dosai Mix, Rava Idli Mix, Rava Dosai Mix, Masala Noodles, Masala Noodles, Fine Noodles, Fine Noodles, Chips, Chips, Chips, Chips, Chocoes, Chocoes, Samba Rava, Poori Maavu, Ragi Maavu, Kadalai Maavu, Bajji Maavu, Pasta, Payasam Mix, Payasam Mix, Payasam Mix</t>
+  </si>
+  <si>
+    <t>Rusk, Chips, Masala Noodles, Fine Noodles, Hakka Noodles, Rava Idli Mix, Rava Dosai Mix, Gulab Jamun Mix, Payasam Mix, Maida, Atta, Ragi Maavu, Godhumai Maavu, Bajji Maavu, Rusk, Chips, Rava Idli Mix, Rava Dosai Mix, Masala Noodles, Fine Noodles, Gulab Jamun Mix, Payasam Mix, Maida, Ragi Maavu, Rava, Poori Maavu, Samba Rava, Chips, Rusk, Gulab Jamun Mix, Payasam Mix, Maida, Bajji Maavu, Rava Dosai Mix, Rava Idli Mix, Masala Noodles, Fine Noodles, Rusk</t>
+  </si>
+  <si>
+    <t>Maida, Godhumai Maavu, Rava Dosai Mix, Rava Idli Mix, Semiya, Upma Semiya, Ragi Semiya, Gulab Jamun Mix, Payasam Mix, Chips, Chocoes, Rusk, Fine Noodles, Masala Noodles, Samba Rava, Poori Maavu, Rava, Atta, Maida, Upma Semiya, Ragi Maavu, Kadalai Maavu, Arisi Maavu, Bajji Maavu, Idiyappam Maavu, Kozhukattai Maavu, Pasta, Payasam Semiya, Rusk, Hakka Noodles, Chips, Gulab Jamun Mix, Maida, Rava Idli Mix, Rava Dosai Mix, Samba Rava, Poori Maavu, Fine Noodles, Masala Noodles, Chips, Rusk, Chocoes, Gulab Jamun Mix, Payasam Mix, Semiya, Upma Semiya, Ragi Semiya, Ragi Maavu, Arisi Maavu, Rusk, Ragi Maavu, Bajji Maavu, Chips, Maida, Godhumai Maavu, Rava Idli Mix, Rava Dosai Mix, Samba Rava, Fine Noodles, Masala Noodles, Gulab Jamun Mix, Payasam Mix, Poori Maavu, Rusk, Chips, Maida, Maida, Upma Semiya, Ragi Maavu, Semiya, Bajji Maavu, Idiyappam Maavu, Pasta, Maida, Samba Rava, Poori Maavu, Rava Idli Mix, Rava Dosai Mix, Ragi Semiya, Gulab Jamun Mix, Payasam Mix, Chocoes, Chips, Fine Noodles, Masala Noodles, Maida, Maida, Rusk, Upma Semiya, Semiya, Rava, Maida, Bajji Maavu, Arisi Maavu, Rusk, Chips</t>
+  </si>
+  <si>
+    <t>MTR, Britannia, Sankar, Britannia, Nandi, Sankar, Britannia, Nandi, MTR, Aachi, Aachi, Sankar, Sankar,  Aachi, Nandi, Sankar, Aachi, MTR, MTR, Britannia, Sankar, Sakthi, Sakthi, Sankar, Nandi, Sankar, Aachi, Britannia, Britannia, MTR, Britannia, Sakthi, Britannia, Sakthi, Britannia, Britannia, Britannia, Britannia, Aachi, Sakthi, Britannia, Britannia, Sakthi, Sakthi, Aachi, Sakthi, Britannia, Sakthi, Aachi, Sakthi, Britannia, Sankar, MTR, MTR, Aachi, Aachi, Nandi, MTR, Sankar, Aachi, Aachi, MTR, Nandi, Aachi, Aachi</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -553,19 +553,19 @@
         <v>86.1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -582,19 +582,19 @@
         <v>77.489999999999995</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -611,19 +611,19 @@
         <v>72.38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -640,19 +640,19 @@
         <v>81.92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -669,19 +669,19 @@
         <v>72.34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -698,19 +698,19 @@
         <v>72.03</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -727,19 +727,19 @@
         <v>84.63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -756,19 +756,19 @@
         <v>71.489999999999995</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -785,19 +785,19 @@
         <v>89.13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -814,19 +814,19 @@
         <v>75.67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -843,19 +843,19 @@
         <v>80.19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -872,16 +872,16 @@
         <v>72.58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly.xlsx
+++ b/data/monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w1mug\Desktop\naga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A661E36-FDFC-4046-A5FF-C2EE4011E5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919A336-727B-4EFE-8857-AF651C914D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Period</t>
   </si>
@@ -85,16 +85,115 @@
     <t>Pricing Concerns</t>
   </si>
   <si>
-    <t>Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Rusk, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Gulab Jamun Mix, Semiya, Semiya, Upma Semiya, Upma Semiya, Ragi Semiya, Semiya, Maida, Maida, Maida, Maida, Rava Idli Mix, Rava Dosai Mix, Rava Idli Mix, Rava Dosai Mix, Masala Noodles, Masala Noodles, Fine Noodles, Fine Noodles, Chips, Chips, Chips, Chips, Chocoes, Chocoes, Samba Rava, Poori Maavu, Ragi Maavu, Kadalai Maavu, Bajji Maavu, Pasta, Payasam Mix, Payasam Mix, Payasam Mix</t>
-  </si>
-  <si>
     <t>Rusk, Chips, Masala Noodles, Fine Noodles, Hakka Noodles, Rava Idli Mix, Rava Dosai Mix, Gulab Jamun Mix, Payasam Mix, Maida, Atta, Ragi Maavu, Godhumai Maavu, Bajji Maavu, Rusk, Chips, Rava Idli Mix, Rava Dosai Mix, Masala Noodles, Fine Noodles, Gulab Jamun Mix, Payasam Mix, Maida, Ragi Maavu, Rava, Poori Maavu, Samba Rava, Chips, Rusk, Gulab Jamun Mix, Payasam Mix, Maida, Bajji Maavu, Rava Dosai Mix, Rava Idli Mix, Masala Noodles, Fine Noodles, Rusk</t>
   </si>
   <si>
-    <t>Maida, Godhumai Maavu, Rava Dosai Mix, Rava Idli Mix, Semiya, Upma Semiya, Ragi Semiya, Gulab Jamun Mix, Payasam Mix, Chips, Chocoes, Rusk, Fine Noodles, Masala Noodles, Samba Rava, Poori Maavu, Rava, Atta, Maida, Upma Semiya, Ragi Maavu, Kadalai Maavu, Arisi Maavu, Bajji Maavu, Idiyappam Maavu, Kozhukattai Maavu, Pasta, Payasam Semiya, Rusk, Hakka Noodles, Chips, Gulab Jamun Mix, Maida, Rava Idli Mix, Rava Dosai Mix, Samba Rava, Poori Maavu, Fine Noodles, Masala Noodles, Chips, Rusk, Chocoes, Gulab Jamun Mix, Payasam Mix, Semiya, Upma Semiya, Ragi Semiya, Ragi Maavu, Arisi Maavu, Rusk, Ragi Maavu, Bajji Maavu, Chips, Maida, Godhumai Maavu, Rava Idli Mix, Rava Dosai Mix, Samba Rava, Fine Noodles, Masala Noodles, Gulab Jamun Mix, Payasam Mix, Poori Maavu, Rusk, Chips, Maida, Maida, Upma Semiya, Ragi Maavu, Semiya, Bajji Maavu, Idiyappam Maavu, Pasta, Maida, Samba Rava, Poori Maavu, Rava Idli Mix, Rava Dosai Mix, Ragi Semiya, Gulab Jamun Mix, Payasam Mix, Chocoes, Chips, Fine Noodles, Masala Noodles, Maida, Maida, Rusk, Upma Semiya, Semiya, Rava, Maida, Bajji Maavu, Arisi Maavu, Rusk, Chips</t>
-  </si>
-  <si>
-    <t>MTR, Britannia, Sankar, Britannia, Nandi, Sankar, Britannia, Nandi, MTR, Aachi, Aachi, Sankar, Sankar,  Aachi, Nandi, Sankar, Aachi, MTR, MTR, Britannia, Sankar, Sakthi, Sakthi, Sankar, Nandi, Sankar, Aachi, Britannia, Britannia, MTR, Britannia, Sakthi, Britannia, Sakthi, Britannia, Britannia, Britannia, Britannia, Aachi, Sakthi, Britannia, Britannia, Sakthi, Sakthi, Aachi, Sakthi, Britannia, Sakthi, Aachi, Sakthi, Britannia, Sankar, MTR, MTR, Aachi, Aachi, Nandi, MTR, Sankar, Aachi, Aachi, MTR, Nandi, Aachi, Aachi</t>
+    <t>Maida – 140, Rusk – 120, Chips – 110, Rava Idli Mix – 85, Rava Dosai Mix – 85, Gulab Jamun Mix – 80, Masala Noodles – 75, Fine Noodles – 70, Upma Semiya – 65, Payasam Mix – 60, Semiya – 55, Samba Rava – 50, Poori Maavu – 45, Ragi Maavu – 45, Godhumai Maavu – 40, Arisi Maavu – 40, Bajji Maavu – 38, Ragi Semiya – 35, Chocoes – 30, Hakka Noodles – 28, Pasta – 26, Payasam Semiya – 24, Rava – 22, Kadalai Maavu – 20, Idiyappam Maavu – 18, Kozhukattai Maavu – 17</t>
+  </si>
+  <si>
+    <t>Rusk – 145, Chips – 135, Maida – 130, Gulab Jamun Mix – 95, Rava Dosai Mix – 90, Rava Idli Mix – 85, Masala Noodles – 80, Fine Noodles – 75, Payasam Mix – 65, Upma Semiya – 60, Semiya – 55, Samba Rava – 50, Ragi Maavu – 45, Poori Maavu – 42, Arisi Maavu – 40, Bajji Maavu – 38, Ragi Semiya – 35, Chocoes – 30</t>
+  </si>
+  <si>
+    <t>Chips – 160, Maida – 140, Rusk – 120, Masala Noodles – 95, Fine Noodles – 90, Gulab Jamun Mix – 85, Rava Idli Mix – 80, Rava Dosai Mix – 75, Upma Semiya – 65, Payasam Mix – 60, Semiya – 55, Samba Rava – 50, Ragi Maavu – 45, Poori Maavu – 42, Bajji Maavu – 38, Ragi Semiya – 35</t>
+  </si>
+  <si>
+    <t>Maida – 155, Rusk – 130, Chips – 120, Rava Idli Mix – 95, Rava Dosai Mix – 90, Gulab Jamun Mix – 85, Payasam Mix – 75, Masala Noodles – 70, Fine Noodles – 65, Upma Semiya – 60, Semiya – 55, Samba Rava – 50, Ragi Maavu – 45, Arisi Maavu – 40, Bajji Maavu – 35</t>
+  </si>
+  <si>
+    <t>Masala Noodles – 150, Fine Noodles – 135, Chips – 125, Maida – 120, Rusk – 110, Gulab Jamun Mix – 95, Rava Dosai Mix – 85, Rava Idli Mix – 80, Payasam Mix – 70, Upma Semiya – 65, Semiya – 55, Samba Rava – 50, Ragi Maavu – 45, Poori Maavu – 40, Chocoes – 35</t>
+  </si>
+  <si>
+    <t>Gulab Jamun Mix – 155, Payasam Mix – 135, Maida – 125, Rusk – 120, Chips – 110, Rava Idli Mix – 95, Rava Dosai Mix – 90, Masala Noodles – 80, Fine Noodles – 75, Upma Semiya – 65, Semiya – 55, Samba Rava – 50, Ragi Maavu – 45</t>
+  </si>
+  <si>
+    <t>Rava Idli Mix – 150, Rava Dosai Mix – 145, Maida – 130, Chips – 120, Rusk – 115, Gulab Jamun Mix – 100, Masala Noodles – 85, Fine Noodles – 80, Payasam Mix – 70, Upma Semiya – 65, Semiya – 55, Samba Rava – 50</t>
+  </si>
+  <si>
+    <t>Fine Noodles – 155, Masala Noodles – 145, Chips – 130, Rusk – 120, Maida – 115, Gulab Jamun Mix – 100, Rava Dosai Mix – 90, Rava Idli Mix – 85, Payasam Mix – 75, Upma Semiya – 65, Semiya – 55</t>
+  </si>
+  <si>
+    <t>Payasam Mix – 150, Gulab Jamun Mix – 145, Maida – 130, Rusk – 120, Chips – 115, Rava Idli Mix – 95, Rava Dosai Mix – 90, Masala Noodles – 80, Fine Noodles – 75, Upma Semiya – 65, Semiya – 55</t>
+  </si>
+  <si>
+    <t>Maida – 165, Chips – 140, Rusk – 125, Masala Noodles – 100, Fine Noodles – 95, Gulab Jamun Mix – 90, Rava Dosai Mix – 85, Rava Idli Mix – 80, Payasam Mix – 70, Upma Semiya – 65, Semiya – 55</t>
+  </si>
+  <si>
+    <t>Rusk – 160, Maida – 145, Chips – 135, Gulab Jamun Mix – 105, Rava Idli Mix – 95, Rava Dosai Mix – 90, Masala Noodles – 85, Fine Noodles – 80, Payasam Mix – 70, Upma Semiya – 65, Semiya – 55</t>
+  </si>
+  <si>
+    <t>Maida – 150, Chips – 125, Rusk – 115, Rava Idli Mix – 90, Gulab Jamun Mix – 85, Rava Dosai Mix – 80, Masala Noodles – 75, Fine Noodles – 70, Upma Semiya – 65, Payasam Mix – 55, Semiya – 50, Samba Rava – 48, Ragi Maavu – 45, Poori Maavu – 42, Godhumai Maavu – 40, Arisi Maavu – 38, Bajji Maavu – 35, Ragi Semiya – 32, Chocoes – 28, Pasta – 25</t>
+  </si>
+  <si>
+    <t>Britannia – 360, Sankar – 240, Aachi – 180, MTR – 120, Sakthi – 90, Nandi – 70</t>
+  </si>
+  <si>
+    <t>Britannia – 330, Aachi – 260, Sankar – 210, MTR – 110, Sakthi – 55, Nandi – 45</t>
+  </si>
+  <si>
+    <t>Sankar – 340, Britannia – 300, Aachi – 180, MTR – 110, Sakthi – 45, Nandi – 35</t>
+  </si>
+  <si>
+    <t>Aachi – 320, Britannia – 290, Sankar – 230, MTR – 90, Sakthi – 45, Nandi – 35</t>
+  </si>
+  <si>
+    <t>Britannia – 380, Sankar – 220, MTR – 160, Aachi – 150, Sakthi – 55, Nandi – 35</t>
+  </si>
+  <si>
+    <t>Sankar – 360, Aachi – 260, Britannia – 220, MTR – 90, Sakthi – 45, Nandi – 30</t>
+  </si>
+  <si>
+    <t>Britannia – 340, Aachi – 240, Sankar – 210, Sakthi – 120, MTR – 60, Nandi – 45</t>
+  </si>
+  <si>
+    <t>Aachi – 350, Britannia – 300, Sankar – 180, Sakthi – 85, MTR – 55, Nandi – 40</t>
+  </si>
+  <si>
+    <t>Britannia – 400, Sankar – 230, Aachi – 180, MTR – 90, Sakthi – 60, Nandi – 40</t>
+  </si>
+  <si>
+    <t>Sankar – 370, Britannia – 280, Aachi – 190, MTR – 80, Sakthi – 50, Nandi – 30</t>
+  </si>
+  <si>
+    <t>Britannia – 310, Sankar – 290, Aachi – 210, Sakthi – 100, MTR – 60, Nandi – 30</t>
+  </si>
+  <si>
+    <t>Aachi – 330, Sankar – 270, Britannia – 260, MTR – 80, Sakthi – 40, Nandi – 35</t>
+  </si>
+  <si>
+    <t>Rusk – 280, Gulab Jamun Mix – 170, Chips – 150, Maida – 130, Rava Idli Mix – 95, Rava Dosai Mix – 90, Masala Noodles – 80, Fine Noodles – 70, Semiya – 55, Upma Semiya – 45, Ragi Semiya – 35</t>
+  </si>
+  <si>
+    <t>Rusk – 260, Chips – 170, Gulab Jamun Mix – 160, Maida – 140, Masala Noodles – 100, Fine Noodles – 85, Rava Idli Mix – 80, Rava Dosai Mix – 75, Semiya – 60, Upma Semiya – 45</t>
+  </si>
+  <si>
+    <t>Rusk – 240, Maida – 190, Rava Idli Mix – 150, Rava Dosai Mix – 140, Gulab Jamun Mix – 110, Chips – 90, Semiya – 60, Upma Semiya – 50, Ragi Semiya – 40</t>
+  </si>
+  <si>
+    <t>Rusk – 230, Gulab Jamun Mix – 200, Payasam Mix – 160, Chips – 120, Maida – 110, Semiya – 70, Upma Semiya – 55, Ragi Semiya – 45</t>
+  </si>
+  <si>
+    <t>Rusk – 310, Chips – 190, Maida – 160, Gulab Jamun Mix – 140, Masala Noodles – 95, Fine Noodles – 85, Semiya – 60</t>
+  </si>
+  <si>
+    <t>Rusk – 210, Maida – 200, Rava Idli Mix – 160, Rava Dosai Mix – 150, Chips – 120, Semiya – 80, Upma Semiya – 60</t>
+  </si>
+  <si>
+    <t>Rusk – 250, Chips – 180, Gulab Jamun Mix – 150, Maida – 140, Masala Noodles – 110, Fine Noodles – 95, Semiya – 70</t>
+  </si>
+  <si>
+    <t>Rusk – 240, Gulab Jamun Mix – 210, Payasam Mix – 170, Chips – 130, Semiya – 85, Upma Semiya – 65</t>
+  </si>
+  <si>
+    <t>Rusk – 340, Chips – 200, Maida – 170, Gulab Jamun Mix – 150, Semiya – 90</t>
+  </si>
+  <si>
+    <t>Rusk – 220, Maida – 210, Rava Idli Mix – 170, Rava Dosai Mix – 160, Chips – 120, Semiya – 70</t>
+  </si>
+  <si>
+    <t>Rusk – 260, Maida – 230, Chips – 180, Gulab Jamun Mix – 150, Semiya – 100, Upma Semiya – 70</t>
+  </si>
+  <si>
+    <t>Rusk – 240, Gulab Jamun Mix – 220, Payasam Mix – 180, Chips – 140, Semiya – 110, Ragi Semiya – 70</t>
   </si>
 </sst>
 </file>
@@ -164,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -183,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,16 +655,16 @@
         <v>86.1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -585,13 +687,13 @@
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -610,17 +712,17 @@
       <c r="E4">
         <v>72.38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -639,17 +741,17 @@
       <c r="E5">
         <v>81.92</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -668,17 +770,17 @@
       <c r="E6">
         <v>72.34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -697,17 +799,17 @@
       <c r="E7">
         <v>72.03</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -726,17 +828,17 @@
       <c r="E8">
         <v>84.63</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -755,17 +857,17 @@
       <c r="E9">
         <v>71.489999999999995</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -784,17 +886,17 @@
       <c r="E10">
         <v>89.13</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -813,17 +915,17 @@
       <c r="E11">
         <v>75.67</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -842,17 +944,17 @@
       <c r="E12">
         <v>80.19</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -871,17 +973,17 @@
       <c r="E13">
         <v>72.58</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
